--- a/DMSNewVSale_2025-12-20_20-01.xlsx
+++ b/DMSNewVSale_2025-12-20_20-01.xlsx
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>72.6000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
   </si>
   <si>
     <t>CEFAXONE 1 GM I.M. VIAL</t>
@@ -2144,7 +2153,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2154,14 +2163,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2170,14 +2179,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2187,11 +2196,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>15</v>
@@ -2203,14 +2212,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2220,11 +2229,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -2236,14 +2245,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2260,7 +2269,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2276,7 +2285,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2293,7 +2302,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2309,7 +2318,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2326,7 +2335,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2342,7 +2351,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2352,14 +2361,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2368,14 +2377,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2392,7 +2401,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2408,7 +2417,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2418,14 +2427,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2434,14 +2443,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2458,7 +2467,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2474,7 +2483,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2507,7 +2516,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2540,7 +2549,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2550,11 +2559,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>19</v>
@@ -2566,14 +2575,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2590,7 +2599,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2612,18 +2621,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2632,20 +2641,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2656,7 +2665,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2672,7 +2681,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2705,7 +2714,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2722,7 +2731,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2738,7 +2747,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2752,10 +2761,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2764,14 +2773,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2781,14 +2790,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2804,7 +2813,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2814,14 +2823,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2830,14 +2839,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2847,14 +2856,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2870,7 +2879,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2920,7 +2929,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2936,7 +2945,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2953,7 +2962,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2969,7 +2978,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2983,7 +2992,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2995,14 +3004,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3016,10 +3025,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3028,14 +3037,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3045,11 +3054,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>19</v>
@@ -3061,14 +3070,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3078,11 +3087,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>19</v>
@@ -3094,14 +3103,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3111,11 +3120,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>19</v>
@@ -3127,14 +3136,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3144,14 +3153,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3160,14 +3169,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3184,7 +3193,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3200,7 +3209,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3217,7 +3226,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3266,7 +3275,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3276,11 +3285,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -3292,31 +3301,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3332,24 +3341,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3358,31 +3367,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3398,21 +3407,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>19</v>
@@ -3424,7 +3433,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3437,11 +3446,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3464,21 +3473,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>19</v>
@@ -3490,14 +3499,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3507,14 +3516,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3530,7 +3539,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3540,14 +3549,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3556,14 +3565,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3573,14 +3582,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3596,7 +3605,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3606,11 +3615,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>15</v>
@@ -3622,14 +3631,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3639,11 +3648,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>15</v>
@@ -3672,14 +3681,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3688,14 +3697,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3728,7 +3737,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3745,7 +3754,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3761,7 +3770,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3771,11 +3780,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3787,14 +3796,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3804,7 +3813,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3827,7 +3836,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3844,7 +3853,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3860,7 +3869,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3870,14 +3879,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3886,14 +3895,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3919,14 +3928,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3936,11 +3945,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>15</v>
@@ -3952,14 +3961,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3969,14 +3978,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3992,7 +4001,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4018,14 +4027,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4035,11 +4044,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -4051,14 +4060,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4068,14 +4077,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4084,14 +4093,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4101,14 +4110,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>242</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4117,31 +4126,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>19</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4157,13 +4166,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4190,13 +4199,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4207,7 +4216,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4223,7 +4232,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4256,7 +4265,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4289,7 +4298,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4322,7 +4331,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4332,11 +4341,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>15</v>
@@ -4348,14 +4357,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4365,14 +4374,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4381,14 +4390,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4398,11 +4407,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>19</v>
@@ -4414,14 +4423,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4431,7 +4440,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4454,7 +4463,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4471,7 +4480,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4487,7 +4496,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4497,14 +4506,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4513,14 +4522,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4530,14 +4539,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>203</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4546,14 +4555,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>19</v>
+        <v>278</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4570,7 +4579,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>19</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4586,7 +4595,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4603,7 +4612,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4619,21 +4628,21 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>15</v>
@@ -4645,28 +4654,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>15</v>
@@ -4678,28 +4687,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>15</v>
@@ -4711,31 +4720,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4744,31 +4753,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>297</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4777,28 +4786,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>217</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>15</v>
@@ -4810,31 +4819,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4843,7 +4852,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4856,18 +4865,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>289</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4876,7 +4885,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4889,18 +4898,18 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4909,31 +4918,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>15</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4942,20 +4951,20 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -4982,21 +4991,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>15</v>
@@ -5008,31 +5017,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5041,31 +5050,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>317</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5081,21 +5090,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>217</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>15</v>
@@ -5107,28 +5116,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>15</v>
@@ -5140,31 +5149,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>321</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5173,31 +5182,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>324</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5213,21 +5222,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>15</v>
@@ -5239,68 +5248,101 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="117" ht="26.25" customHeight="1">
-      <c r="N117" s="13">
-        <v>6057.4449999999997</v>
-      </c>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>329</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>181</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>123</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
         <v>330</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
         <v>331</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c t="s" r="Q117" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" customHeight="1">
+      <c r="N118" s="13">
+        <v>6100.4449999999997</v>
+      </c>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
+        <v>332</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>333</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>334</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5859,10 +5901,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="N118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
